--- a/EmailDb.xlsx
+++ b/EmailDb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiane\OneDrive\Documents\UiPath\EmailAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC49152-90E9-4A13-9CCC-8230CDF5239D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236230E5-C289-47C5-B125-1315E81C2AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9135" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>First Name</t>
   </si>
@@ -70,12 +70,63 @@
   </si>
   <si>
     <t>example@gmail.com</t>
+  </si>
+  <si>
+    <t>Donation Amount</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>john@email.com</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>andy@email.com</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>g@email.com</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Reynolds</t>
+  </si>
+  <si>
+    <t>rr@email.com</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Friday@email.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,9 +165,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,19 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +482,11 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -449,8 +505,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -469,14 +528,134 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+      <c r="G3" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1500</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E7D4A0A3-9094-4A3E-8164-AF4B2847F796}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{79777829-254E-4478-8059-7F98C3B61346}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{1FDC55FF-EADD-44A4-B8FA-6C035268C242}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{057276D4-8FB2-4F9E-A11F-46F9E939025A}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D0ED6582-B07C-47EC-8825-5B6549CE21C1}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{15152822-5C65-4C8A-AD4B-C8D1A3B587EF}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{2AF8E65C-9A66-48A6-95F3-EAEE11CC9F2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
